--- a/medicine/Psychotrope/Côtes-du-forez/Côtes-du-forez.xlsx
+++ b/medicine/Psychotrope/Côtes-du-forez/Côtes-du-forez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-du-forez</t>
+          <t>Côtes-du-forez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le côtes-du-forez est un vin rouge ou rosé d'appellation d'origine contrôlée produit dans le département de la Loire, au pied des monts du Forez par dix vignerons indépendants et une cave coopérative[3]. Cette appellation fait partie du vignoble de la vallée de la Loire (classement INAO).
+Le côtes-du-forez est un vin rouge ou rosé d'appellation d'origine contrôlée produit dans le département de la Loire, au pied des monts du Forez par dix vignerons indépendants et une cave coopérative. Cette appellation fait partie du vignoble de la vallée de la Loire (classement INAO).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-du-forez</t>
+          <t>Côtes-du-forez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières traces sérieuses de culture de la vigne dans la région délimitée par l'AOC Côtes-du-Forez remontent à 980[4]. La culture de la vigne incombait alors aux ordres monastiques, notamment aux prieurés dépendant de Cluny, puis des comtes du Forez.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières traces sérieuses de culture de la vigne dans la région délimitée par l'AOC Côtes-du-Forez remontent à 980. La culture de la vigne incombait alors aux ordres monastiques, notamment aux prieurés dépendant de Cluny, puis des comtes du Forez.
 En 1883, le vignoble comprenait 5 043 hectares.
-En 1953, Côtes-du-Forez obtient l'appellation AOVDQS. Elle est classée AOC par décret du 23 février 2000[5].
-Depuis 1963, des festivités et un corso fleuri ont lieu chaque premier weekend d'octobre à Montbrison[6].
-Chaque année, l'association des vignerons organise un évènement de promotion du vignoble. Par exemple, en 2021, la soirée  a été parrainée par le chef triplement étoilé Jacques Marcon[7].
+En 1953, Côtes-du-Forez obtient l'appellation AOVDQS. Elle est classée AOC par décret du 23 février 2000.
+Depuis 1963, des festivités et un corso fleuri ont lieu chaque premier weekend d'octobre à Montbrison.
+Chaque année, l'association des vignerons organise un évènement de promotion du vignoble. Par exemple, en 2021, la soirée  a été parrainée par le chef triplement étoilé Jacques Marcon.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-du-forez</t>
+          <t>Côtes-du-forez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +561,49 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'aire de production de l'AOC Côtes-du-Forez est implantée à l'extrémité amont du vignoble du val de Loire.
-Ce vignoble s'étend à l'est du Massif central, sur 116 hectares[8], au pied des monts du Forez, le long d'un axe nord-sud de 45 km passant par la ville de Montbrison. 
-Liste des communes de l'appellation
-Dix-sept communes possèdent des terrains classés AOC :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de production de l'AOC Côtes-du-Forez est implantée à l'extrémité amont du vignoble du val de Loire.
+Ce vignoble s'étend à l'est du Massif central, sur 116 hectares, au pied des monts du Forez, le long d'un axe nord-sud de 45 km passant par la ville de Montbrison. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Côtes-du-forez</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-du-forez</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des communes de l'appellation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dix-sept communes possèdent des terrains classés AOC :
 Arthun
 Boën-sur-Lignon
 Bussy-Albieux
@@ -573,44 +624,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>C%C3%B4tes-du-forez</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-du-forez</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Sols</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vignes se situent entre 400 et 600 mètres d'altitude. Les sols où elles se développent sont essentiellement sableux (de type arène) et issus de l'altération des roches granitiques et métamorphiques (schistes et gneiss) formant le socle des monts du Forez. Des veines basaltiques sont localement à l'origine de sols plus argileux[9].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-du-forez</t>
+          <t>Côtes-du-forez</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,10 +645,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Sols</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vignes se situent entre 400 et 600 mètres d'altitude. Les sols où elles se développent sont essentiellement sableux (de type arène) et issus de l'altération des roches granitiques et métamorphiques (schistes et gneiss) formant le socle des monts du Forez. Des veines basaltiques sont localement à l'origine de sols plus argileux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Côtes-du-forez</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-du-forez</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Cépages et types de vin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le seul cépage admis dans l'appellation est le gamay. Il est vendangé à la main ou à la machine, vinifié en rosés et en rouges.
 Rendement maximal : 66 hectolitres par hectare. La densité minimale de plantation est fixée par décret à 4 000 ceps à l'hectare.
@@ -639,31 +694,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>C%C3%B4tes-du-forez</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Côtes-du-forez</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-du-forez</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Liste des cuvées de la Fête du Livre de Saint-Étienne</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1986 : René Fallet
